--- a/docs/redis-schema.xlsx
+++ b/docs/redis-schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">room:{room_id}</t>
   </si>
   <si>
-    <t xml:space="preserve">host:{user_id}, guest:{user_id}</t>
+    <t xml:space="preserve">host:user_id, guest:user_id, name:room_name</t>
   </si>
   <si>
     <t xml:space="preserve">Hash Map</t>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sorted Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room_polling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room_id:room_id</t>
   </si>
 </sst>
 </file>
@@ -61,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,17 +83,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,16 +153,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,52 +187,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:E3"/>
+  <dimension ref="C1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/redis-schema.xlsx
+++ b/docs/redis-schema.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">room:{room_id}</t>
   </si>
   <si>
-    <t xml:space="preserve">host:user_id, guest:user_id, name:room_name</t>
+    <t xml:space="preserve">host:user_id, guest:user_id, name:room_name, point:point</t>
   </si>
   <si>
     <t xml:space="preserve">Hash Map</t>
@@ -190,14 +190,14 @@
   <dimension ref="C1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
   </cols>

--- a/docs/redis-schema.xlsx
+++ b/docs/redis-schema.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">room:{room_id}</t>
   </si>
   <si>
-    <t xml:space="preserve">host:user_id, guest:user_id, name:room_name, point:point</t>
+    <t xml:space="preserve">host:user_id, guest:user_id, name:room_name, point:point, host_win:number, guest_win:number</t>
   </si>
   <si>
     <t xml:space="preserve">Hash Map</t>
@@ -190,14 +190,14 @@
   <dimension ref="C1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="108.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
   </cols>
